--- a/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/s6_csv/all_skills_excel.xlsx
+++ b/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/s6_csv/all_skills_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/s6_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4DA83D-88E6-3B4A-B5E4-709D3D257FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3F8399-0383-BA43-B092-672365748D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13720" yWindow="900" windowWidth="27360" windowHeight="24940" xr2:uid="{4769D6B4-3BF1-F14E-9405-23EAED48BFA6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="47">
   <si>
     <t>Attacking Skill</t>
   </si>
@@ -580,17 +580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01529E26-95D6-4B4E-82CE-E4B99C9C41BB}">
-  <dimension ref="A2:AN73"/>
+  <dimension ref="A2:AN76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:P73"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
@@ -3026,44 +3026,41 @@
       <c r="A54" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3071,43 +3068,43 @@
         <v>33</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>66</v>
-      </c>
-      <c r="F55" s="1">
-        <v>79</v>
-      </c>
-      <c r="G55" s="1">
-        <v>57</v>
-      </c>
-      <c r="H55" s="1">
-        <v>70</v>
-      </c>
-      <c r="I55" s="1">
-        <v>70</v>
-      </c>
-      <c r="J55" s="1">
-        <v>72</v>
-      </c>
-      <c r="K55" s="1">
-        <v>54</v>
-      </c>
-      <c r="L55" s="1">
-        <v>69</v>
-      </c>
-      <c r="M55" s="1">
-        <v>74</v>
-      </c>
-      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="O55" s="1">
-        <v>47</v>
-      </c>
-      <c r="P55" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -3115,43 +3112,43 @@
         <v>34</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G56" s="1">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H56" s="1">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I56" s="1">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J56" s="1">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K56" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L56" s="1">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M56" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="N56" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O56" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="P56" s="1">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3159,43 +3156,43 @@
         <v>35</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F57" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="H57" s="1">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I57" s="1">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J57" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K57" s="1">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="L57" s="1">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="M57" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="N57" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="O57" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P57" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3203,40 +3200,40 @@
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1">
         <v>14</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
+        <v>9</v>
+      </c>
+      <c r="H58" s="1">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1">
+        <v>9</v>
+      </c>
+      <c r="J58" s="1">
+        <v>10</v>
+      </c>
+      <c r="K58" s="1">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
+        <v>9</v>
+      </c>
+      <c r="M58" s="1">
+        <v>6</v>
+      </c>
+      <c r="N58" s="1">
+        <v>11</v>
+      </c>
+      <c r="O58" s="1">
         <v>17</v>
-      </c>
-      <c r="G58" s="1">
-        <v>11</v>
-      </c>
-      <c r="H58" s="1">
-        <v>9</v>
-      </c>
-      <c r="I58" s="1">
-        <v>26</v>
-      </c>
-      <c r="J58" s="1">
-        <v>9</v>
-      </c>
-      <c r="K58" s="1">
-        <v>22</v>
-      </c>
-      <c r="L58" s="1">
-        <v>16</v>
-      </c>
-      <c r="M58" s="1">
-        <v>17</v>
-      </c>
-      <c r="N58" s="1">
-        <v>21</v>
-      </c>
-      <c r="O58" s="1">
-        <v>23</v>
       </c>
       <c r="P58" s="1">
         <v>20</v>
@@ -3247,43 +3244,43 @@
         <v>37</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G59" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H59" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I59" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J59" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K59" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L59" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M59" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N59" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="O59" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="P59" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3291,43 +3288,43 @@
         <v>38</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1">
+        <v>14</v>
+      </c>
+      <c r="J60" s="1">
+        <v>10</v>
+      </c>
+      <c r="K60" s="1">
+        <v>11</v>
+      </c>
+      <c r="L60" s="1">
+        <v>13</v>
+      </c>
+      <c r="M60" s="1">
+        <v>6</v>
+      </c>
+      <c r="N60" s="1">
+        <v>5</v>
+      </c>
+      <c r="O60" s="1">
         <v>7</v>
       </c>
-      <c r="E60" s="1">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1">
-        <v>11</v>
-      </c>
-      <c r="G60" s="1">
-        <v>18</v>
-      </c>
-      <c r="H60" s="1">
-        <v>16</v>
-      </c>
-      <c r="I60" s="1">
-        <v>18</v>
-      </c>
-      <c r="J60" s="1">
-        <v>17</v>
-      </c>
-      <c r="K60" s="1">
-        <v>18</v>
-      </c>
-      <c r="L60" s="1">
-        <v>17</v>
-      </c>
-      <c r="M60" s="1">
-        <v>20</v>
-      </c>
-      <c r="N60" s="1">
-        <v>7</v>
-      </c>
-      <c r="O60" s="1">
-        <v>20</v>
-      </c>
       <c r="P60" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -3335,461 +3332,540 @@
         <v>39</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1">
+        <v>18</v>
+      </c>
+      <c r="H61" s="1">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1">
+        <v>18</v>
+      </c>
+      <c r="J61" s="1">
+        <v>17</v>
+      </c>
+      <c r="K61" s="1">
+        <v>18</v>
+      </c>
+      <c r="L61" s="1">
+        <v>17</v>
+      </c>
+      <c r="M61" s="1">
+        <v>20</v>
+      </c>
+      <c r="N61" s="1">
         <v>7</v>
       </c>
-      <c r="F61" s="1">
-        <v>3</v>
-      </c>
-      <c r="G61" s="1">
-        <v>9</v>
-      </c>
-      <c r="H61" s="1">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1">
-        <v>12</v>
-      </c>
-      <c r="J61" s="1">
-        <v>7</v>
-      </c>
-      <c r="K61" s="1">
-        <v>7</v>
-      </c>
-      <c r="L61" s="1">
-        <v>7</v>
-      </c>
-      <c r="M61" s="1">
-        <v>3</v>
-      </c>
-      <c r="N61" s="1">
-        <v>4</v>
-      </c>
       <c r="O61" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P61" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>9</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>12</v>
+      </c>
+      <c r="J62" s="1">
+        <v>7</v>
+      </c>
+      <c r="K62" s="1">
+        <v>7</v>
+      </c>
+      <c r="L62" s="1">
+        <v>7</v>
+      </c>
+      <c r="M62" s="1">
+        <v>3</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1">
         <v>4</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G63" s="1">
         <v>6</v>
       </c>
-      <c r="H62" s="1">
-        <v>3</v>
-      </c>
-      <c r="I62" s="1">
-        <v>3</v>
-      </c>
-      <c r="J62" s="1">
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>3</v>
+      </c>
+      <c r="J63" s="1">
         <v>8</v>
       </c>
-      <c r="K62" s="1">
-        <v>2</v>
-      </c>
-      <c r="L62" s="1">
-        <v>2</v>
-      </c>
-      <c r="M62" s="1">
-        <v>3</v>
-      </c>
-      <c r="N62" s="1">
-        <v>2</v>
-      </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="1">
-        <v>46</v>
-      </c>
-      <c r="F65" s="1">
-        <v>54</v>
-      </c>
-      <c r="G65" s="1">
-        <v>40</v>
-      </c>
-      <c r="H65" s="1">
-        <v>63</v>
-      </c>
-      <c r="I65" s="1">
-        <v>23</v>
-      </c>
-      <c r="J65" s="1">
-        <v>41</v>
-      </c>
-      <c r="K65" s="1">
-        <v>26</v>
-      </c>
-      <c r="L65" s="1">
-        <v>43</v>
-      </c>
-      <c r="M65" s="1">
-        <v>47</v>
-      </c>
-      <c r="N65" s="1">
-        <v>24</v>
-      </c>
-      <c r="O65" s="1">
-        <v>57</v>
-      </c>
-      <c r="P65" s="1">
-        <v>37</v>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3</v>
+      </c>
+      <c r="N63" s="1">
+        <v>2</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1">
-        <v>35</v>
-      </c>
-      <c r="F66" s="1">
-        <v>47</v>
-      </c>
-      <c r="G66" s="1">
-        <v>47</v>
-      </c>
-      <c r="H66" s="1">
-        <v>74</v>
-      </c>
-      <c r="I66" s="1">
-        <v>19</v>
-      </c>
-      <c r="J66" s="1">
-        <v>43</v>
-      </c>
-      <c r="K66" s="1">
-        <v>36</v>
-      </c>
-      <c r="L66" s="1">
-        <v>30</v>
-      </c>
-      <c r="M66" s="1">
-        <v>30</v>
-      </c>
-      <c r="N66" s="1">
-        <v>72</v>
-      </c>
-      <c r="O66" s="1">
-        <v>70</v>
-      </c>
-      <c r="P66" s="1">
-        <v>28</v>
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="1">
-        <v>26</v>
-      </c>
-      <c r="F67" s="1">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="1">
-        <v>35</v>
-      </c>
-      <c r="H67" s="1">
-        <v>40</v>
-      </c>
-      <c r="I67" s="1">
-        <v>42</v>
-      </c>
-      <c r="J67" s="1">
-        <v>25</v>
-      </c>
-      <c r="K67" s="1">
-        <v>24</v>
-      </c>
-      <c r="L67" s="1">
-        <v>29</v>
-      </c>
-      <c r="M67" s="1">
-        <v>24</v>
-      </c>
-      <c r="N67" s="1">
+      <c r="G67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O67" s="1">
-        <v>42</v>
-      </c>
-      <c r="P67" s="1">
-        <v>59</v>
+      <c r="N67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F68" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G68" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H68" s="1">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="I68" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J68" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K68" s="1">
+        <v>26</v>
+      </c>
+      <c r="L68" s="1">
+        <v>43</v>
+      </c>
+      <c r="M68" s="1">
         <v>47</v>
       </c>
-      <c r="L68" s="1">
-        <v>30</v>
-      </c>
-      <c r="M68" s="1">
-        <v>16</v>
-      </c>
       <c r="N68" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O68" s="1">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P68" s="1">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E69" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F69" s="1">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G69" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H69" s="1">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I69" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J69" s="1">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K69" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L69" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M69" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N69" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="O69" s="1">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="P69" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H70" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I70" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J70" s="1">
         <v>25</v>
       </c>
       <c r="K70" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L70" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M70" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N70" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="O70" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P70" s="1">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="H71" s="1">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1">
+        <v>33</v>
+      </c>
+      <c r="J71" s="1">
+        <v>32</v>
+      </c>
       <c r="K71" s="1">
-        <v>1</v>
-      </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="L71" s="1">
+        <v>30</v>
+      </c>
+      <c r="M71" s="1">
+        <v>16</v>
+      </c>
+      <c r="N71" s="1">
+        <v>39</v>
+      </c>
       <c r="O71" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20</v>
+      </c>
+      <c r="F72" s="1">
+        <v>18</v>
+      </c>
+      <c r="G72" s="1">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1">
         <v>26</v>
       </c>
-      <c r="E72" s="1">
-        <v>3</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-      <c r="H72" s="1">
-        <v>3</v>
-      </c>
       <c r="I72" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J72" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K72" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L72" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M72" s="1">
-        <v>3</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N72" s="1">
+        <v>8</v>
+      </c>
       <c r="O72" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P72" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1">
+        <v>17</v>
+      </c>
+      <c r="F73" s="1">
+        <v>24</v>
+      </c>
+      <c r="G73" s="1">
+        <v>22</v>
+      </c>
+      <c r="H73" s="1">
+        <v>22</v>
+      </c>
+      <c r="I73" s="1">
+        <v>31</v>
+      </c>
+      <c r="J73" s="1">
+        <v>25</v>
+      </c>
+      <c r="K73" s="1">
+        <v>32</v>
+      </c>
+      <c r="L73" s="1">
+        <v>32</v>
+      </c>
+      <c r="M73" s="1">
+        <v>27</v>
+      </c>
+      <c r="N73" s="1">
+        <v>12</v>
+      </c>
+      <c r="O73" s="1">
+        <v>31</v>
+      </c>
+      <c r="P73" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>3</v>
+      </c>
+      <c r="M75" s="1">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1">
+        <v>3</v>
+      </c>
+      <c r="P75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
-      <c r="I73" s="1">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
         <v>4</v>
       </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1">
-        <v>1</v>
-      </c>
-      <c r="N73" s="1">
-        <v>1</v>
-      </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
